--- a/first_assignment/titanic3.xlsx
+++ b/first_assignment/titanic3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloudconvert\server\files\tasks\db625103-5b6e-4bf6-a66d-670c9bb4d72f\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloudconvert\server\files\tasks\eb1cc207-93cf-44d5-a5b5-8d8bdff44e7c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA0E756-8EEA-4A33-9890-31EFED8DA15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1648A484-FDB7-4B21-8B43-93D47A46F045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
@@ -8524,7 +8524,7 @@
         <xdr:cNvPr id="1025" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A90A1D-E3BB-4585-A0BF-49A336899C35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E1F408-69C4-4E40-9225-18C94DBE5368}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
